--- a/data/trans_orig/P64DS2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2D5F1B-4924-4619-BE5E-1D11449A98E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4957040-1F5C-4FEA-8215-47B427F1D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C3590BA-E398-48F5-A304-7F4FD1184BE9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC82952-BD45-42F1-AEBF-5264EFBE7944}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="233">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 2 en 2023 (Tasa respuesta: 42,62%)</t>
   </si>
@@ -98,28 +98,28 @@
     <t>10,5%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>En bicicleta</t>
@@ -131,28 +131,28 @@
     <t>89,5%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -173,10 +173,10 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -185,487 +185,502 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,01%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -674,16 +689,16 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>6,03%</t>
+    <t>6,04%</t>
   </si>
   <si>
     <t>7,63%</t>
@@ -692,34 +707,31 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,07%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>87,04%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C718EA-363C-4C94-91DC-EB76B015C55F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86679D-9E3B-4D19-B1D8-DD5251DBC2E3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2267,7 +2279,7 @@
         <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2335,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2341,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2356,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2371,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2401,13 +2413,13 @@
         <v>3080</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2416,13 +2428,13 @@
         <v>3080</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2449,13 @@
         <v>11603</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H27" s="7">
         <v>27</v>
@@ -2452,13 +2464,13 @@
         <v>20311</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -2467,13 +2479,13 @@
         <v>31914</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2500,13 @@
         <v>11800</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -2503,7 +2515,7 @@
         <v>19303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>144</v>
@@ -2545,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2623,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2694,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2700,7 +2712,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2730,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2757,13 @@
         <v>160</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2775,13 +2787,13 @@
         <v>160</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2808,13 @@
         <v>44573</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H34" s="7">
         <v>58</v>
@@ -2811,13 +2823,13 @@
         <v>51750</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M34" s="7">
         <v>97</v>
@@ -2826,13 +2838,13 @@
         <v>96323</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2859,13 @@
         <v>27734</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H35" s="7">
         <v>45</v>
@@ -2862,13 +2874,13 @@
         <v>28612</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>76</v>
@@ -2877,13 +2889,13 @@
         <v>56346</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2910,13 @@
         <v>1035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2928,13 +2940,13 @@
         <v>1035</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2961,13 @@
         <v>421454</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H37" s="7">
         <v>503</v>
@@ -2964,13 +2976,13 @@
         <v>385504</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M37" s="7">
         <v>910</v>
@@ -2979,13 +2991,13 @@
         <v>806959</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3065,13 @@
         <v>1821</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3068,13 +3080,13 @@
         <v>1650</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -3083,13 +3095,13 @@
         <v>3471</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,10 +3119,10 @@
         <v>80</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -3122,10 +3134,10 @@
         <v>149</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -3134,13 +3146,13 @@
         <v>11859</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3167,13 @@
         <v>91231</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7">
         <v>117</v>
@@ -3170,13 +3182,13 @@
         <v>98747</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M41" s="7">
         <v>198</v>
@@ -3185,13 +3197,13 @@
         <v>189977</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3218,13 @@
         <v>105132</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H42" s="7">
         <v>201</v>
@@ -3221,13 +3233,13 @@
         <v>123478</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M42" s="7">
         <v>322</v>
@@ -3236,13 +3248,13 @@
         <v>228610</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3269,13 @@
         <v>1035</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3272,13 +3284,13 @@
         <v>1064</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3287,13 +3299,13 @@
         <v>2100</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3320,13 @@
         <v>1636918</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="H44" s="7">
         <v>1718</v>
@@ -3323,13 +3335,13 @@
         <v>1281484</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M44" s="7">
         <v>3188</v>
@@ -3338,13 +3350,13 @@
         <v>2918403</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3412,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64DS2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4957040-1F5C-4FEA-8215-47B427F1D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FE466F-E109-447E-9609-A6C0C897F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC82952-BD45-42F1-AEBF-5264EFBE7944}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07491588-6E78-4590-88AE-40BD44ABDA32}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No realiza estos trayectos</t>
@@ -158,7 +158,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -269,7 +269,7 @@
     <t>89,56%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -401,7 +401,7 @@
     <t>84,77%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,58%</t>
@@ -1146,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86679D-9E3B-4D19-B1D8-DD5251DBC2E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FDC09A-6414-41C1-BC80-5FB8AA360B52}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
